--- a/target/classes/resources/Credentials.xlsx
+++ b/target/classes/resources/Credentials.xlsx
@@ -34,7 +34,7 @@
     <t>Field of Interest</t>
   </si>
   <si>
-    <t>rahulsingh7456@yopmail.com</t>
+    <t>rahulsingh_123@yopmail.com</t>
   </si>
   <si>
     <t>rahul@123</t>
@@ -49,7 +49,7 @@
     <t>Testing</t>
   </si>
   <si>
-    <t>rahulsingh103@yopmail.com</t>
+    <t>rahulsingh_456@yopmail.com</t>
   </si>
   <si>
     <t>John</t>
@@ -58,7 +58,7 @@
     <t>Dae</t>
   </si>
   <si>
-    <t>rahulsingh2564@yopmail.com</t>
+    <t>rahulsingh_789@yopmail.com</t>
   </si>
   <si>
     <t>Honey</t>
@@ -74,8 +74,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -95,6 +95,43 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <charset val="0"/>
@@ -102,28 +139,53 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -137,9 +199,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,60 +208,28 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Arial"/>
@@ -209,36 +238,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -253,13 +253,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -271,7 +355,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -283,103 +421,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,49 +433,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,6 +444,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -466,46 +505,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -533,21 +544,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -565,130 +565,130 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -697,7 +697,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -963,12 +963,12 @@
   <dimension ref="A1:XFD4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="23.1333333333333" customWidth="1"/>
+    <col min="1" max="1" width="44.1428571428571" customWidth="1"/>
     <col min="3" max="3" width="17.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1055,9 +1055,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="rahulsingh7456@yopmail.com"/>
-    <hyperlink ref="A3" r:id="rId2" display="rahulsingh103@yopmail.com"/>
-    <hyperlink ref="A4" r:id="rId3" display="rahulsingh2564@yopmail.com"/>
+    <hyperlink ref="A2" r:id="rId1" display="rahulsingh_123@yopmail.com" tooltip="mailto:rahulsingh_123@yopmail.com"/>
+    <hyperlink ref="A3" r:id="rId2" display="rahulsingh_456@yopmail.com" tooltip="mailto:rahulsingh_456@yopmail.com"/>
+    <hyperlink ref="A4" r:id="rId3" display="rahulsingh_789@yopmail.com" tooltip="mailto:rahulsingh_789@yopmail.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
